--- a/examples/sources/data/unsolved/to_schedule/2019-03-29.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-29.xlsx
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2">
         <v>43553</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" s="2">
         <v>43553</v>
@@ -4807,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>43553</v>
